--- a/biology/Médecine/Agathon_de_Potter/Agathon_de_Potter.xlsx
+++ b/biology/Médecine/Agathon_de_Potter/Agathon_de_Potter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathon de Potter, né le 11 novembre 1827 à Bruxelles et mort le 30 novembre 1907 dans la même ville, est un sociologue belge.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 11 novembre 1827 à Bruxelles, Agathon de Potter est le fils de Louis de Potter[1], membre du gouvernement provisoire de Belgique en 1830 et de Sophie van Weydeveldt.
-Docteur en médecine, écrivain et sociologue, il est séduit comme son père par les idées de l'économiste Colins et se consacre à l'étude du socialisme rationnel[2].
-Un prix de l'Académie royale des Sciences, des Lettres et des Beaux-Arts de Belgique créé en 1919 porte son nom[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 11 novembre 1827 à Bruxelles, Agathon de Potter est le fils de Louis de Potter, membre du gouvernement provisoire de Belgique en 1830 et de Sophie van Weydeveldt.
+Docteur en médecine, écrivain et sociologue, il est séduit comme son père par les idées de l'économiste Colins et se consacre à l'étude du socialisme rationnel.
+Un prix de l'Académie royale des Sciences, des Lettres et des Beaux-Arts de Belgique créé en 1919 porte son nom
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Considérations générales sur la charité, à propos du projet de loi qui la concerne, 1857
 Qu'est-ce que la guerre et la paix: examen de l'ouvrage de M. Proudhon sur la guerre et la paix, 1862
